--- a/JBossEAP5/docs/JBossEAP_5.x_SCAP.xlsx
+++ b/JBossEAP5/docs/JBossEAP_5.x_SCAP.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="1050">
   <si>
     <t>Task: Information regarding authentication requirements, authorization requirements, and auditing requirements and guidelines was extracted from the following resources. These are listed on the following three tabs ("AuthN", "AuthZ", "Audit").  References to Additional Information from the same resources are also provided.  This information is located on the "Additional Info" tab.  Do not modify the structure of the "Additional Info" spreadsheet, or the references will be incorrect.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -837,9 +837,6 @@
   </si>
   <si>
     <t>Permissions on keystore</t>
-  </si>
-  <si>
-    <t>No compilers on system</t>
   </si>
   <si>
     <t>review architecture</t>
@@ -4425,6 +4422,92 @@
   </si>
   <si>
     <t>Access deployed applications to determine if a warning banner is displayed.  A code reviewing showing the functional code will also suffice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No compilers on production Jboss servers </t>
+  </si>
+  <si>
+    <t>U.S. Department of Commerce, National Institute of Standards and Technology. (2009). Guidelines on Securing Public Web Servers (800-44). Retrieved from website: http://csrc.nist.gov/publications/PubsSPs.html</t>
+  </si>
+  <si>
+    <t>Attackers are often able to leverage access to compilers on a server into elevated privileges and increased penetration of a server.  This danger is heightened due to the typical exposure of web servers to untrusted parties.</t>
+  </si>
+  <si>
+    <t>ECSC-1</t>
+  </si>
+  <si>
+    <t>Ensure that all compilers and development tools (such as integrated development environments) have been removed from the server.</t>
+  </si>
+  <si>
+    <t>Have all compilers been removed from the JBoss Enterprise Application server?
+Have all integrated development environments been removed from the JBoss Enterprise Application server?</t>
+  </si>
+  <si>
+    <t>Interview the system administrator.  Review applications installed on the JBoss EAP.  Determine if compilers or development tools (such as IDE's) have been installed.</t>
+  </si>
+  <si>
+    <t>Compilers and other development tools have been removed from the web server.</t>
+  </si>
+  <si>
+    <t>Step1). Change the sucker password in “deploy/messaging/messaging-jboss-beans.xml”. Suppose your SuckerPassword is “ABCEDEFGHI” then we can do the following:
+1
+&lt;property name="suckerPassword"&gt;ABCEDEFGHI&lt;/property&gt;
+Step2). Generate an encrypted version of this password (jboss-messaging-client.jar’s location is relative to jboss-as/client directory):
+1
+java -cp $JBOSS_HOME/client/jboss-messaging-client.jar org.jboss.messaging.util.SecurityUtil ABCEDEFGHI
+2
+3
+Output:
+4
+-------------
+5
+key len: 14 length max: 128
+6
+Encoded password: 4cd5ab1456781b311
+Step3). Place the encodedPassword of above command in “deploy/messaging/messaging-service.xml”
+1
+&lt;attribute name="SuckerPassword"&gt;4cd5ab1456781b311&lt;/attribute&gt;
+Step4). Restart your JBoss Profile.</t>
+  </si>
+  <si>
+    <t>Change default password: JBoss Messaging MessageSucker</t>
+  </si>
+  <si>
+    <t>Jboss Messaging ships with a default MessageSucker password located within the Messaging ServerPeer configuration.  This password is used by JBoss to create connections and pass messages between nodes.</t>
+  </si>
+  <si>
+    <t>The SuckerPassword ships with a default clear-text password that can be used by attackers to pass messages to default installations of Jboss.  The exact content and ramifications of these messages will depend on the listening applications (application logic, input validations, etc.).</t>
+  </si>
+  <si>
+    <t>Has the default JBoss Messaging MessageSucker password been changed?</t>
+  </si>
+  <si>
+    <t>Review the Jboss Messaging configuration file for the Messaging ServerPeer located here: 
+JBOSS_HOME/server[PROFILE]/deploy/messaging/messaging-jboss-beans.xml
+Ensure the &lt;property name="suckerPassword" &gt; has been changed from the default of "CHANGE ME!".</t>
+  </si>
+  <si>
+    <t>Open the Jboss Messaging configuration file for the Messaging ServerPeer located here: 
+JBOSS_HOME/server[PROFILE]/deploy/messaging/messaging-jboss-beans.xml
+Locate the element &lt;property name="suckerPassword" &gt; and change the contents to a new password generated in accoradnce with your organization's password security requirements, restricting the use of predefined XML entities such as &lt;'&gt;@".  For example:
+&lt;property name="suckerPassword" &gt;Lmf3SdntiDFF6(D5&lt;/property&gt;
+&lt;property name="suckerPassword"&gt;ABCEDEFGHI&lt;/property&gt;
+Step2). Generate an encrypted version of this password (jboss-messaging-client.jar’s location is relative to jboss-as/client directory):
+1
+java -cp $JBOSS_HOME/client/jboss-messaging-client.jar org.jboss.messaging.util.SecurityUtil ABCEDEFGHI
+2
+3
+Output:
+4
+-------------
+5
+key len: 14 length max: 128
+6
+Encoded password: 4cd5ab1456781b311
+Step3). Place the encodedPassword of above command in “deploy/messaging/messaging-service.xml”
+1
+&lt;attribute name="SuckerPassword"&gt;4cd5ab1456781b311&lt;/attribute&gt;
+Step4). Restart your JBoss Profile.</t>
   </si>
 </sst>
 </file>
@@ -4471,7 +4554,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4495,6 +4578,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4509,7 +4598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4547,6 +4636,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4984,11 +5079,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T174"/>
+  <dimension ref="A1:T177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L171" sqref="L171"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N156" sqref="N156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -5021,10 +5116,10 @@
         <v>58</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>154</v>
@@ -5033,22 +5128,22 @@
         <v>158</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>211</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>521</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>522</v>
       </c>
       <c r="L1" s="14" t="s">
         <v>163</v>
@@ -5060,22 +5155,22 @@
         <v>162</v>
       </c>
       <c r="O1" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
@@ -5084,7 +5179,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>155</v>
@@ -5096,43 +5191,43 @@
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>145</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
@@ -5141,7 +5236,7 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>155</v>
@@ -5150,43 +5245,43 @@
         <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>146</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="6" customFormat="1" ht="239.4" hidden="1" x14ac:dyDescent="0.2">
@@ -5195,7 +5290,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>155</v>
@@ -5204,43 +5299,43 @@
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>147</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="6" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
@@ -5249,7 +5344,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>155</v>
@@ -5258,43 +5353,43 @@
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="6" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.2">
@@ -5303,7 +5398,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>156</v>
@@ -5312,43 +5407,43 @@
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="6" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
@@ -5357,7 +5452,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>155</v>
@@ -5366,43 +5461,43 @@
         <v>8</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>148</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>706</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="6" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
@@ -5411,7 +5506,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>155</v>
@@ -5420,43 +5515,43 @@
         <v>8</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>149</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N8" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>707</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>708</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="6" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
@@ -5465,7 +5560,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>155</v>
@@ -5474,43 +5569,43 @@
         <v>8</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>150</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>710</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
@@ -5519,7 +5614,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>155</v>
@@ -5528,43 +5623,43 @@
         <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>226</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="6" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.2">
@@ -5573,7 +5668,7 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>155</v>
@@ -5582,43 +5677,43 @@
         <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="6" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.2">
@@ -5627,7 +5722,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>155</v>
@@ -5636,43 +5731,43 @@
         <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N12" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="6" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.2">
@@ -5681,7 +5776,7 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>155</v>
@@ -5690,43 +5785,43 @@
         <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
@@ -5735,7 +5830,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>155</v>
@@ -5744,43 +5839,43 @@
         <v>3</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
@@ -5789,7 +5884,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>155</v>
@@ -5798,43 +5893,43 @@
         <v>3</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>886</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="O15" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="226.8" hidden="1" x14ac:dyDescent="0.2">
@@ -5843,7 +5938,7 @@
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>156</v>
@@ -5852,43 +5947,43 @@
         <v>4.3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N16" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>712</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="6" customFormat="1" ht="252" hidden="1" x14ac:dyDescent="0.2">
@@ -5897,7 +5992,7 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>156</v>
@@ -5906,43 +6001,43 @@
         <v>4.3</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N17" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>714</v>
       </c>
       <c r="Q17" s="5" t="s">
         <v>60</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="239.4" hidden="1" x14ac:dyDescent="0.2">
@@ -5951,7 +6046,7 @@
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>156</v>
@@ -5960,43 +6055,43 @@
         <v>4.3</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N18" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>716</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>60</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="19" spans="1:19" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
@@ -6005,7 +6100,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>155</v>
@@ -6014,43 +6109,43 @@
         <v>3</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>151</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="6" customFormat="1" ht="176.4" hidden="1" x14ac:dyDescent="0.2">
@@ -6059,7 +6154,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>155</v>
@@ -6068,43 +6163,43 @@
         <v>4</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>56</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:19" s="6" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.2">
@@ -6113,7 +6208,7 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>155</v>
@@ -6122,43 +6217,43 @@
         <v>4</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:19" s="6" customFormat="1" ht="88.2" hidden="1" x14ac:dyDescent="0.2">
@@ -6167,7 +6262,7 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>155</v>
@@ -6176,43 +6271,43 @@
         <v>4</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>54</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="6" customFormat="1" ht="88.2" hidden="1" x14ac:dyDescent="0.2">
@@ -6221,7 +6316,7 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>155</v>
@@ -6230,43 +6325,43 @@
         <v>4</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L23" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>366</v>
-      </c>
       <c r="N23" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:19" s="6" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.2">
@@ -6275,7 +6370,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>156</v>
@@ -6284,43 +6379,43 @@
         <v>4</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>57</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L24" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="N24" s="5" t="s">
+      <c r="O24" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="Q24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="6" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.2">
@@ -6329,7 +6424,7 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>155</v>
@@ -6338,43 +6433,43 @@
         <v>3</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="M25" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="N25" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:19" s="6" customFormat="1" ht="264.60000000000002" hidden="1" x14ac:dyDescent="0.2">
@@ -6383,7 +6478,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>156</v>
@@ -6392,43 +6487,43 @@
         <v>3</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L26" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="O26" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>806</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="P26" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -6437,7 +6532,7 @@
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>156</v>
@@ -6446,43 +6541,43 @@
         <v>3</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I27" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>948</v>
-      </c>
       <c r="M27" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N27" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>943</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>945</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>944</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -6491,7 +6586,7 @@
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>156</v>
@@ -6500,43 +6595,43 @@
         <v>3</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I28" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>912</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="M28" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>951</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>952</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S28" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:19" s="6" customFormat="1" ht="151.19999999999999" hidden="1" x14ac:dyDescent="0.2">
@@ -6545,7 +6640,7 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>156</v>
@@ -6554,43 +6649,43 @@
         <v>3</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I29" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="L29" s="5" t="s">
+      <c r="M29" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="O29" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="N29" s="5" t="s">
+      <c r="P29" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="Q29" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:19" s="6" customFormat="1" ht="88.2" hidden="1" x14ac:dyDescent="0.2">
@@ -6599,7 +6694,7 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>155</v>
@@ -6608,43 +6703,43 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>53</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>230</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>229</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="31" spans="1:19" s="6" customFormat="1" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.2">
@@ -6653,7 +6748,7 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>155</v>
@@ -6662,43 +6757,43 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N31" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q31" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="R31" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="6" customFormat="1" ht="302.39999999999998" hidden="1" x14ac:dyDescent="0.2">
@@ -6707,7 +6802,7 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>155</v>
@@ -6716,43 +6811,43 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>52</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="126" hidden="1" x14ac:dyDescent="0.2">
@@ -6761,100 +6856,100 @@
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F33" s="6">
         <v>3</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N33" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="315" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F34" s="7">
         <v>6</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L34" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="M34" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>987</v>
-      </c>
       <c r="N34" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>1014</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>985</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>1015</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>161</v>
       </c>
       <c r="R34" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S34" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="35" spans="1:19" s="6" customFormat="1" ht="176.4" hidden="1" x14ac:dyDescent="0.2">
@@ -6863,7 +6958,7 @@
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>155</v>
@@ -6872,43 +6967,43 @@
         <v>3</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>217</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:19" s="6" customFormat="1" ht="163.80000000000001" hidden="1" x14ac:dyDescent="0.2">
@@ -6917,7 +7012,7 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>155</v>
@@ -6926,43 +7021,43 @@
         <v>3</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>218</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:19" s="6" customFormat="1" ht="163.80000000000001" hidden="1" x14ac:dyDescent="0.2">
@@ -6971,7 +7066,7 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>155</v>
@@ -6980,43 +7075,43 @@
         <v>3</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>219</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R37" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="6" customFormat="1" ht="163.80000000000001" hidden="1" x14ac:dyDescent="0.2">
@@ -7025,7 +7120,7 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>155</v>
@@ -7034,43 +7129,43 @@
         <v>3</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>220</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R38" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:19" s="6" customFormat="1" ht="138.6" hidden="1" x14ac:dyDescent="0.2">
@@ -7079,7 +7174,7 @@
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>155</v>
@@ -7088,43 +7183,43 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I39" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>413</v>
-      </c>
       <c r="M39" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>552</v>
-      </c>
       <c r="O39" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q39" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40" spans="1:19" s="6" customFormat="1" ht="226.8" hidden="1" x14ac:dyDescent="0.2">
@@ -7133,7 +7228,7 @@
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>156</v>
@@ -7142,43 +7237,43 @@
         <v>3.5</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L40" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q40" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>511</v>
-      </c>
       <c r="R40" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -7244,7 +7339,7 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>156</v>
@@ -7253,43 +7348,43 @@
         <v>3.5</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L42" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="M42" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="N42" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>436</v>
-      </c>
       <c r="O42" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="176.4" hidden="1" x14ac:dyDescent="0.2">
@@ -7298,7 +7393,7 @@
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>156</v>
@@ -7307,43 +7402,43 @@
         <v>6.2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M43" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="N43" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="N43" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="O43" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="44" spans="1:19" s="6" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.2">
@@ -7352,7 +7447,7 @@
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>155</v>
@@ -7361,43 +7456,43 @@
         <v>3.5</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H44" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="J44" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="M44" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>557</v>
-      </c>
       <c r="N44" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q44" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="6" customFormat="1" ht="138.6" hidden="1" x14ac:dyDescent="0.2">
@@ -7406,7 +7501,7 @@
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>156</v>
@@ -7415,43 +7510,43 @@
         <v>2.6</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q45" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R45" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="126" hidden="1" x14ac:dyDescent="0.2">
@@ -7460,7 +7555,7 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>155</v>
@@ -7469,43 +7564,43 @@
         <v>2.6</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R46" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="6" customFormat="1" ht="252" hidden="1" x14ac:dyDescent="0.2">
@@ -7514,7 +7609,7 @@
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>155</v>
@@ -7523,43 +7618,43 @@
         <v>1</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q47" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R47" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="6" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.2">
@@ -7568,7 +7663,7 @@
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>156</v>
@@ -7577,43 +7672,43 @@
         <v>2.6</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I48" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="O48" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="M48" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="N48" s="5" t="s">
+      <c r="P48" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>594</v>
       </c>
       <c r="Q48" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
@@ -7622,7 +7717,7 @@
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>156</v>
@@ -7631,43 +7726,43 @@
         <v>2.6</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>48</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>47</v>
       </c>
       <c r="M49" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="O49" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="N49" s="7" t="s">
+      <c r="P49" s="7" t="s">
         <v>1004</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>1005</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
@@ -7733,7 +7828,7 @@
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>155</v>
@@ -7742,43 +7837,43 @@
         <v>2.6</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L51" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="N51" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="O51" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q51" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:19" s="10" customFormat="1" ht="88.2" hidden="1" x14ac:dyDescent="0.2">
@@ -7787,28 +7882,28 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>27</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L52" s="9" t="s">
         <v>29</v>
@@ -7821,10 +7916,10 @@
         <v>23</v>
       </c>
       <c r="R52" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="53" spans="1:19" s="6" customFormat="1" ht="327.60000000000002" hidden="1" x14ac:dyDescent="0.2">
@@ -7833,7 +7928,7 @@
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>156</v>
@@ -7842,43 +7937,43 @@
         <v>6.2</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L53" s="5" t="s">
         <v>42</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Q53" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="54" spans="1:19" s="6" customFormat="1" ht="214.2" hidden="1" x14ac:dyDescent="0.2">
@@ -7887,7 +7982,7 @@
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>156</v>
@@ -7896,43 +7991,43 @@
         <v>6.2</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Q54" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="6" customFormat="1" ht="214.2" hidden="1" x14ac:dyDescent="0.2">
@@ -7941,7 +8036,7 @@
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>156</v>
@@ -7950,43 +8045,43 @@
         <v>6.2</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Q55" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R55" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="56" spans="1:19" s="6" customFormat="1" ht="214.2" hidden="1" x14ac:dyDescent="0.2">
@@ -7995,7 +8090,7 @@
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>156</v>
@@ -8004,43 +8099,43 @@
         <v>6.2</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q56" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R56" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" spans="1:19" s="6" customFormat="1" ht="214.2" hidden="1" x14ac:dyDescent="0.2">
@@ -8049,7 +8144,7 @@
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>156</v>
@@ -8058,43 +8153,43 @@
         <v>6.2</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q57" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R57" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="6" customFormat="1" ht="88.2" hidden="1" x14ac:dyDescent="0.2">
@@ -8103,7 +8198,7 @@
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>156</v>
@@ -8112,43 +8207,43 @@
         <v>6.2</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N58" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="O58" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="O58" s="5" t="s">
+      <c r="P58" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="P58" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="Q58" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R58" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S58" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="59" spans="1:19" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
@@ -8157,7 +8252,7 @@
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>155</v>
@@ -8166,43 +8261,43 @@
         <v>3.5</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>41</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q59" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R59" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -8211,7 +8306,7 @@
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>156</v>
@@ -8220,43 +8315,43 @@
         <v>3.5</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="M60" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="I60" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>941</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="N60" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>505</v>
       </c>
       <c r="Q60" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R60" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="88.2" hidden="1" x14ac:dyDescent="0.2">
@@ -8265,7 +8360,7 @@
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>156</v>
@@ -8277,43 +8372,43 @@
         <v>2.4</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H61" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="M61" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="I61" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="M61" s="7" t="s">
-        <v>497</v>
-      </c>
       <c r="N61" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P61" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R61" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.2">
@@ -8322,7 +8417,7 @@
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>156</v>
@@ -8331,43 +8426,43 @@
         <v>2.4</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I62" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="O62" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="J62" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>930</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="N62" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="O62" s="7" t="s">
+      <c r="P62" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="Q62" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R62" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="6" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.2">
@@ -8376,7 +8471,7 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>156</v>
@@ -8385,43 +8480,43 @@
         <v>6.9</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>39</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>40</v>
       </c>
       <c r="M63" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="O63" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="N63" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>568</v>
-      </c>
       <c r="P63" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q63" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
@@ -8430,7 +8525,7 @@
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>156</v>
@@ -8439,43 +8534,43 @@
         <v>8</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I64" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="M64" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="J64" s="5" t="s">
-        <v>917</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="L64" s="6" t="s">
+      <c r="N64" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="P64" s="5" t="s">
         <v>858</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="P64" s="5" t="s">
-        <v>859</v>
       </c>
       <c r="Q64" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="138.6" hidden="1" x14ac:dyDescent="0.2">
@@ -8484,7 +8579,7 @@
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>156</v>
@@ -8493,43 +8588,43 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I65" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="O65" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="J65" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>538</v>
-      </c>
       <c r="P65" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Q65" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R65" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="6" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.2">
@@ -8538,7 +8633,7 @@
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>156</v>
@@ -8547,43 +8642,43 @@
         <v>3.5</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>152</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O66" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="P66" s="5" t="s">
         <v>483</v>
-      </c>
-      <c r="P66" s="5" t="s">
-        <v>484</v>
       </c>
       <c r="Q66" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -8649,7 +8744,7 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>156</v>
@@ -8658,43 +8753,43 @@
         <v>6</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I68" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="O68" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="M68" s="5" t="s">
+      <c r="P68" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="N68" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="O68" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="P68" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="Q68" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R68" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="6" customFormat="1" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
@@ -8703,7 +8798,7 @@
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>156</v>
@@ -8712,43 +8807,43 @@
         <v>6</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I69" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="N69" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="J69" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="N69" s="5" t="s">
+      <c r="O69" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="O69" s="5" t="s">
+      <c r="P69" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q69" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="P69" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="R69" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10011,7 +10106,7 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>156</v>
@@ -10020,43 +10115,43 @@
         <v>3.5</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>159</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L92" s="6" t="s">
         <v>160</v>
       </c>
       <c r="M92" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="N92" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="O92" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="O92" s="5" t="s">
+      <c r="P92" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="P92" s="5" t="s">
-        <v>488</v>
-      </c>
       <c r="Q92" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R92" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S92" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:19" s="6" customFormat="1" ht="277.2" hidden="1" x14ac:dyDescent="0.2">
@@ -10065,7 +10160,7 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>156</v>
@@ -10074,43 +10169,43 @@
         <v>3.5</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I93" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="O93" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="J93" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="L93" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="M93" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="N93" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="O93" s="6" t="s">
+      <c r="P93" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="P93" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="Q93" s="6" t="s">
         <v>161</v>
       </c>
       <c r="R93" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S93" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:19" s="6" customFormat="1" ht="163.80000000000001" hidden="1" x14ac:dyDescent="0.2">
@@ -10119,7 +10214,7 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>156</v>
@@ -10128,43 +10223,43 @@
         <v>6</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>240</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L94" s="6" t="s">
         <v>227</v>
       </c>
       <c r="M94" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="O94" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="N94" s="6" t="s">
+      <c r="P94" s="6" t="s">
         <v>824</v>
-      </c>
-      <c r="O94" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="P94" s="6" t="s">
-        <v>825</v>
       </c>
       <c r="Q94" s="6" t="s">
         <v>161</v>
       </c>
       <c r="R94" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S94" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="6" customFormat="1" ht="214.2" hidden="1" x14ac:dyDescent="0.2">
@@ -10173,7 +10268,7 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>156</v>
@@ -10182,91 +10277,91 @@
         <v>4.3</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I95" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="M95" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="J95" s="5" t="s">
-        <v>903</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>940</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="M95" s="5" t="s">
+      <c r="N95" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="O95" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="N95" s="5" t="s">
+      <c r="P95" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="O95" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="P95" s="6" t="s">
-        <v>677</v>
       </c>
       <c r="Q95" s="7" t="s">
         <v>60</v>
       </c>
       <c r="R95" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S95" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="390.6" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F96" s="7">
         <v>6</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="N96" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="P96" s="7" t="s">
         <v>1016</v>
-      </c>
-      <c r="O96" s="7" t="s">
-        <v>954</v>
-      </c>
-      <c r="P96" s="7" t="s">
-        <v>1017</v>
       </c>
       <c r="Q96" s="7" t="s">
         <v>161</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="265.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -10275,49 +10370,49 @@
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>155</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>153</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q97" s="8" t="s">
         <v>161</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="S97" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="6" customFormat="1" ht="88.2" hidden="1" x14ac:dyDescent="0.2">
@@ -10326,7 +10421,7 @@
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>155</v>
@@ -10335,43 +10430,43 @@
         <v>4</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>212</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q98" s="6" t="s">
         <v>161</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="99" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10437,7 +10532,7 @@
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>156</v>
@@ -10446,43 +10541,43 @@
         <v>4.3</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I100" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="L100" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="J100" s="7" t="s">
-        <v>878</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="L100" s="6" t="s">
+      <c r="M100" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="M100" s="6" t="s">
-        <v>693</v>
-      </c>
       <c r="N100" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="O100" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="P100" s="6" t="s">
         <v>700</v>
-      </c>
-      <c r="O100" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="P100" s="6" t="s">
-        <v>701</v>
       </c>
       <c r="Q100" s="6" t="s">
         <v>161</v>
       </c>
       <c r="R100" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S100" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="101" spans="1:19" s="6" customFormat="1" ht="151.19999999999999" hidden="1" x14ac:dyDescent="0.2">
@@ -10491,7 +10586,7 @@
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>156</v>
@@ -10500,40 +10595,40 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O101" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="P101" s="6" t="s">
         <v>829</v>
-      </c>
-      <c r="P101" s="6" t="s">
-        <v>830</v>
       </c>
       <c r="Q101" s="6" t="s">
         <v>161</v>
       </c>
       <c r="R101" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S101" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="189" hidden="1" x14ac:dyDescent="0.2">
@@ -10542,7 +10637,7 @@
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>155</v>
@@ -10551,43 +10646,43 @@
         <v>3.5</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I102" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N102" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="O102" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="O102" s="7" t="s">
+      <c r="P102" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="P102" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="Q102" s="8" t="s">
         <v>161</v>
       </c>
       <c r="R102" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S102" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:19" s="6" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.2">
@@ -10596,7 +10691,7 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>156</v>
@@ -10605,43 +10700,43 @@
         <v>3</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I103" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="L103" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="J103" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>911</v>
-      </c>
-      <c r="L103" s="5" t="s">
+      <c r="M103" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="N103" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="O103" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="M103" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="N103" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="O103" s="6" t="s">
+      <c r="P103" s="6" t="s">
         <v>818</v>
-      </c>
-      <c r="P103" s="6" t="s">
-        <v>819</v>
       </c>
       <c r="Q103" s="6" t="s">
         <v>161</v>
       </c>
       <c r="R103" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S103" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10707,7 +10802,7 @@
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>155</v>
@@ -10716,43 +10811,43 @@
         <v>3</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L105" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="M105" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="M105" s="5" t="s">
-        <v>576</v>
-      </c>
       <c r="N105" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q105" s="6" t="s">
         <v>161</v>
       </c>
       <c r="R105" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="6" customFormat="1" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -10761,7 +10856,7 @@
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>156</v>
@@ -10770,43 +10865,43 @@
         <v>5</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I106" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="N106" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="J106" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="K106" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="L106" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="M106" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="N106" s="6" t="s">
+      <c r="O106" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="O106" s="6" t="s">
-        <v>654</v>
-      </c>
       <c r="P106" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q106" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R106" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -10872,7 +10967,7 @@
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>156</v>
@@ -10881,43 +10976,43 @@
         <v>3</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N108" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="O108" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="O108" s="5" t="s">
+      <c r="P108" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="P108" s="5" t="s">
-        <v>681</v>
-      </c>
       <c r="Q108" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="R108" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S108" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="6" customFormat="1" ht="151.19999999999999" hidden="1" x14ac:dyDescent="0.2">
@@ -10926,7 +11021,7 @@
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>156</v>
@@ -10935,43 +11030,43 @@
         <v>3</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O109" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="P109" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="P109" s="5" t="s">
-        <v>683</v>
-      </c>
       <c r="Q109" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R109" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S109" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:19" s="6" customFormat="1" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -10980,7 +11075,7 @@
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>156</v>
@@ -10989,43 +11084,43 @@
         <v>3</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I110" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="L110" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="J110" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="L110" s="5" t="s">
+      <c r="M110" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="O110" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="M110" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="N110" s="5" t="s">
+      <c r="P110" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="O110" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="P110" s="5" t="s">
-        <v>618</v>
-      </c>
       <c r="Q110" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R110" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:19" s="6" customFormat="1" ht="252" hidden="1" x14ac:dyDescent="0.2">
@@ -11034,7 +11129,7 @@
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>156</v>
@@ -11043,43 +11138,43 @@
         <v>3</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I111" s="5" t="s">
         <v>165</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M111" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="O111" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="N111" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="O111" s="5" t="s">
-        <v>430</v>
-      </c>
       <c r="P111" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Q111" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R111" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:19" s="6" customFormat="1" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -11088,7 +11183,7 @@
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>156</v>
@@ -11097,43 +11192,43 @@
         <v>3</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>166</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N112" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="P112" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="O112" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="P112" s="5" t="s">
-        <v>620</v>
-      </c>
       <c r="Q112" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R112" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:19" s="6" customFormat="1" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -11142,7 +11237,7 @@
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>156</v>
@@ -11151,43 +11246,43 @@
         <v>3</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N113" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="O113" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="P113" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="O113" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="P113" s="5" t="s">
-        <v>624</v>
-      </c>
       <c r="Q113" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R113" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S113" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:19" s="6" customFormat="1" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -11196,7 +11291,7 @@
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>156</v>
@@ -11205,43 +11300,43 @@
         <v>3</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I114" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="K114" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="O114" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="J114" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="K114" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="L114" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="M114" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="N114" s="5" t="s">
+      <c r="P114" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="O114" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="P114" s="5" t="s">
-        <v>634</v>
-      </c>
       <c r="Q114" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R114" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S114" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:19" s="6" customFormat="1" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -11250,7 +11345,7 @@
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>156</v>
@@ -11259,43 +11354,43 @@
         <v>3</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I115" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="O115" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="J115" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="K115" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="L115" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="M115" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="N115" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="O115" s="5" t="s">
-        <v>630</v>
-      </c>
       <c r="P115" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R115" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S115" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:19" s="6" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.2">
@@ -11304,7 +11399,7 @@
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>156</v>
@@ -11313,43 +11408,43 @@
         <v>3</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N116" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="O116" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="P116" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="O116" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="P116" s="5" t="s">
-        <v>638</v>
-      </c>
       <c r="Q116" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R116" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="6" customFormat="1" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -11358,7 +11453,7 @@
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>156</v>
@@ -11367,43 +11462,43 @@
         <v>3</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I117" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N117" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="J117" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="K117" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="L117" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="M117" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="N117" s="5" t="s">
+      <c r="O117" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="O117" s="5" t="s">
+      <c r="P117" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="P117" s="5" t="s">
-        <v>644</v>
-      </c>
       <c r="Q117" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R117" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:19" s="6" customFormat="1" ht="214.2" hidden="1" x14ac:dyDescent="0.2">
@@ -11412,7 +11507,7 @@
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>156</v>
@@ -11421,43 +11516,43 @@
         <v>3</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I118" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="L118" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="J118" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="K118" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="L118" s="5" t="s">
+      <c r="M118" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="O118" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="P118" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="M118" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="N118" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="O118" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="P118" s="5" t="s">
-        <v>647</v>
-      </c>
       <c r="Q118" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R118" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S118" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:19" s="6" customFormat="1" ht="151.19999999999999" hidden="1" x14ac:dyDescent="0.2">
@@ -11466,7 +11561,7 @@
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>156</v>
@@ -11475,43 +11570,43 @@
         <v>3</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>167</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P119" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="Q119" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R119" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S119" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:19" s="6" customFormat="1" ht="138.6" hidden="1" x14ac:dyDescent="0.2">
@@ -11520,7 +11615,7 @@
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>156</v>
@@ -11529,43 +11624,43 @@
         <v>3</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>168</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L120" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="O120" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="M120" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="N120" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="O120" s="5" t="s">
+      <c r="P120" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="P120" s="5" t="s">
-        <v>724</v>
-      </c>
       <c r="Q120" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R120" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S120" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:19" s="6" customFormat="1" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
@@ -11574,7 +11669,7 @@
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>156</v>
@@ -11583,43 +11678,43 @@
         <v>3</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L121" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="O121" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="P121" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="M121" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="O121" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="P121" s="5" t="s">
-        <v>728</v>
-      </c>
       <c r="Q121" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R121" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S121" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:19" s="6" customFormat="1" ht="151.19999999999999" hidden="1" x14ac:dyDescent="0.2">
@@ -11628,7 +11723,7 @@
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>156</v>
@@ -11637,43 +11732,43 @@
         <v>3</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>169</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="O122" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P122" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R122" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S122" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:19" s="6" customFormat="1" ht="151.19999999999999" hidden="1" x14ac:dyDescent="0.2">
@@ -11682,7 +11777,7 @@
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>156</v>
@@ -11691,43 +11786,43 @@
         <v>3</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P123" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R123" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -11793,7 +11888,7 @@
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>156</v>
@@ -11802,43 +11897,43 @@
         <v>3</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I125" s="5" t="s">
         <v>170</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N125" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="O125" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="O125" s="5" t="s">
+      <c r="P125" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="P125" s="5" t="s">
-        <v>748</v>
-      </c>
       <c r="Q125" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="R125" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S125" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:19" s="6" customFormat="1" ht="88.2" hidden="1" x14ac:dyDescent="0.2">
@@ -11847,7 +11942,7 @@
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>156</v>
@@ -11856,43 +11951,43 @@
         <v>5</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L126" s="6" t="s">
         <v>214</v>
       </c>
       <c r="M126" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="N126" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="N126" s="6" t="s">
+      <c r="O126" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="O126" s="6" t="s">
+      <c r="P126" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="P126" s="6" t="s">
-        <v>689</v>
-      </c>
       <c r="Q126" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R126" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S126" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="6" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.2">
@@ -11901,7 +11996,7 @@
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>156</v>
@@ -11910,43 +12005,43 @@
         <v>5</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M127" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="O127" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="N127" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="O127" s="6" t="s">
+      <c r="P127" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="P127" s="6" t="s">
-        <v>743</v>
-      </c>
       <c r="Q127" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R127" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S127" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -12012,7 +12107,7 @@
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>156</v>
@@ -12021,43 +12116,43 @@
         <v>3.5</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>213</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L129" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="M129" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="M129" s="6" t="s">
+      <c r="N129" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="O129" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="N129" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="O129" s="6" t="s">
-        <v>752</v>
-      </c>
       <c r="P129" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R129" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S129" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:20" s="6" customFormat="1" ht="214.2" hidden="1" x14ac:dyDescent="0.2">
@@ -12066,7 +12161,7 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>156</v>
@@ -12075,43 +12170,43 @@
         <v>6</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L130" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="N130" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="M130" s="6" t="s">
+      <c r="O130" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="N130" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="O130" s="6" t="s">
-        <v>755</v>
-      </c>
       <c r="P130" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Q130" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R130" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S130" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:20" s="13" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.2">
@@ -12120,7 +12215,7 @@
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>156</v>
@@ -12130,43 +12225,43 @@
         <v>6</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>222</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M131" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N131" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="N131" s="6" t="s">
+      <c r="O131" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="O131" s="6" t="s">
+      <c r="P131" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="P131" s="6" t="s">
-        <v>780</v>
-      </c>
       <c r="Q131" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R131" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S131" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T131" s="6"/>
     </row>
@@ -12176,7 +12271,7 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>155</v>
@@ -12186,41 +12281,41 @@
         <v>3.5</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I132" s="5" t="s">
         <v>164</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L132" s="6" t="s">
         <v>215</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P132" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q132" s="6"/>
       <c r="R132" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S132" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T132" s="6"/>
     </row>
@@ -12230,7 +12325,7 @@
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>156</v>
@@ -12240,43 +12335,43 @@
         <v>3.5</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L133" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="M133" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="M133" s="6" t="s">
-        <v>767</v>
-      </c>
       <c r="N133" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O133" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P133" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q133" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R133" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S133" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T133" s="6"/>
     </row>
@@ -12286,7 +12381,7 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>156</v>
@@ -12296,41 +12391,41 @@
         <v>6</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>221</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K134" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M134" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="O134" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="N134" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="O134" s="6" t="s">
-        <v>765</v>
-      </c>
       <c r="P134" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q134" s="6"/>
       <c r="R134" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S134" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T134" s="6"/>
     </row>
@@ -12340,7 +12435,7 @@
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>156</v>
@@ -12350,41 +12445,41 @@
         <v>4</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>224</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L135" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="M135" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="M135" s="6" t="s">
-        <v>782</v>
-      </c>
       <c r="N135" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O135" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="P135" s="6" t="s">
         <v>775</v>
-      </c>
-      <c r="P135" s="6" t="s">
-        <v>776</v>
       </c>
       <c r="Q135" s="6"/>
       <c r="R135" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T135" s="6"/>
     </row>
@@ -12394,7 +12489,7 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>156</v>
@@ -12404,41 +12499,41 @@
         <v>4</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>223</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L136" s="6" t="s">
         <v>225</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="N136" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="O136" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="O136" s="6" t="s">
-        <v>763</v>
-      </c>
       <c r="P136" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q136" s="6"/>
       <c r="R136" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S136" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T136" s="6"/>
     </row>
@@ -12448,7 +12543,7 @@
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>156</v>
@@ -12458,41 +12553,41 @@
         <v>4.3</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>231</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K137" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L137" s="6" t="s">
         <v>232</v>
       </c>
       <c r="M137" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="N137" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="N137" s="6" t="s">
+      <c r="O137" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="P137" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="O137" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="P137" s="6" t="s">
-        <v>787</v>
       </c>
       <c r="Q137" s="6"/>
       <c r="R137" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S137" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="T137" s="6"/>
     </row>
@@ -12502,7 +12597,7 @@
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>155</v>
@@ -12512,429 +12607,450 @@
         <v>3.7</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J138" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="K138" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="K138" s="7" t="s">
-        <v>936</v>
-      </c>
       <c r="L138" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M138" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N138" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="O138" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="P138" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="O138" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="P138" s="6" t="s">
-        <v>790</v>
-      </c>
       <c r="Q138" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R138" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S138" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="T138" s="6"/>
     </row>
     <row r="139" spans="1:20" ht="176.4" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B139" s="7"/>
       <c r="C139" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F139" s="7">
         <v>5</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="N139" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O139" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="P139" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Q139" s="7" t="s">
         <v>993</v>
       </c>
-      <c r="P139" s="7" t="s">
+      <c r="R139" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="Q139" s="7" t="s">
-        <v>994</v>
-      </c>
-      <c r="R139" s="7" t="s">
-        <v>1026</v>
-      </c>
       <c r="S139" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="252" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B140" s="7"/>
       <c r="C140" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F140" s="7">
         <v>5</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L140" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M140" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="N140" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="M140" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="N140" s="7" t="s">
+      <c r="O140" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="P140" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="O140" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="P140" s="7" t="s">
-        <v>1023</v>
-      </c>
       <c r="Q140" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R140" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="S140" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:20" ht="176.4" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F141" s="7">
         <v>5</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="M141" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N141" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="N141" s="7" t="s">
-        <v>1008</v>
-      </c>
       <c r="O141" s="8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="P141" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Q141" s="8" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="R141" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="S141" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:20" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J142" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="S142" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="143" spans="1:20" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H143" s="8" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I143" s="8" t="s">
         <v>241</v>
       </c>
       <c r="J143" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="S143" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="144" spans="1:20" ht="63" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H144" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J144" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K144" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L144" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="M144" s="8" t="s">
         <v>974</v>
       </c>
-      <c r="M144" s="8" t="s">
-        <v>975</v>
-      </c>
       <c r="S144" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J145" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="S145" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G146" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J146" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S146" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B147" s="7"/>
       <c r="C147" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J147" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="S147" s="8" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="H148" s="8" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I148" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="J148" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="S148" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A148" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B148" s="15"/>
+      <c r="C148" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="F148" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="H148" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="I148" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J148" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K148" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="L148" s="16" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M148" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="N148" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O148" s="16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P148" s="16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q148" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S148" s="16" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B149" s="7"/>
       <c r="C149" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H149" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J149" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="S149" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="150" spans="1:20" ht="50.4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B150" s="7"/>
       <c r="C150" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>156</v>
@@ -12943,230 +13059,245 @@
         <v>6</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J150" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="L150" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="K150" s="8" t="s">
-        <v>928</v>
-      </c>
-      <c r="L150" s="8" t="s">
+      <c r="M150" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="N150" s="8" t="s">
         <v>890</v>
       </c>
-      <c r="M150" s="8" t="s">
+      <c r="O150" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="P150" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="N150" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="O150" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="P150" s="8" t="s">
-        <v>894</v>
-      </c>
       <c r="R150" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S150" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B151" s="7"/>
       <c r="C151" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H151" s="8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="S151" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B152" s="7"/>
       <c r="C152" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>155</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J152" s="7"/>
       <c r="S152" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="153" spans="1:20" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B153" s="7"/>
       <c r="C153" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I153" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="J153" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="K153" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="M153" s="8" t="s">
         <v>977</v>
       </c>
-      <c r="J153" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="K153" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="M153" s="8" t="s">
-        <v>978</v>
-      </c>
       <c r="S153" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="154" spans="1:20" ht="63" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B154" s="7"/>
       <c r="C154" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G154" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H154" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J154" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="S154" s="8" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" ht="25.2" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B155" s="7"/>
-      <c r="C155" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="H155" s="8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I155" s="8" t="s">
-        <v>983</v>
-      </c>
-      <c r="J155" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="K155" s="8" t="s">
-        <v>930</v>
-      </c>
-      <c r="S155" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" s="16" customFormat="1" ht="403.2" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B155" s="15"/>
+      <c r="C155" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="H155" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I155" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J155" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="K155" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="L155" s="16" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M155" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N155" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="O155" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="P155" s="16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S155" s="16" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="50.4" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B156" s="7"/>
       <c r="C156" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H156" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J156" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="S156" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="157" spans="1:20" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B157" s="12"/>
       <c r="C157" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>156</v>
@@ -13175,40 +13306,40 @@
         <v>4</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I157" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="K157" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="L157" s="6" t="s">
         <v>860</v>
       </c>
-      <c r="J157" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="K157" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="L157" s="6" t="s">
+      <c r="M157" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="N157" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="M157" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="N157" s="6" t="s">
+      <c r="O157" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="O157" s="6" t="s">
+      <c r="P157" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="P157" s="6" t="s">
-        <v>864</v>
-      </c>
       <c r="Q157" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R157" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S157" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T157" s="13"/>
     </row>
@@ -13218,7 +13349,7 @@
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>155</v>
@@ -13227,115 +13358,115 @@
         <v>3</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I158" s="5" t="s">
         <v>216</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M158" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N158" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O158" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P158" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q158" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R158" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S158" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B159" s="7"/>
       <c r="C159" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H159" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="L159" s="8" t="s">
         <v>969</v>
       </c>
-      <c r="I159" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="J159" s="7" t="s">
-        <v>855</v>
-      </c>
-      <c r="L159" s="8" t="s">
-        <v>970</v>
-      </c>
       <c r="S159" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="160" spans="1:20" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B160" s="7"/>
       <c r="C160" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H160" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J160" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K160" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L160" s="8" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="S160" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="161" spans="1:20" s="6" customFormat="1" ht="88.2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D161" s="6" t="s">
         <v>156</v>
@@ -13344,52 +13475,52 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I161" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J161" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="K161" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="L161" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="J161" s="5" t="s">
-        <v>905</v>
-      </c>
-      <c r="K161" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="L161" s="6" t="s">
-        <v>453</v>
-      </c>
       <c r="M161" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O161" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="P161" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="P161" s="5" t="s">
-        <v>581</v>
       </c>
       <c r="Q161" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R161" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S161" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="162" spans="1:20" s="6" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D162" s="6" t="s">
         <v>156</v>
@@ -13398,52 +13529,52 @@
         <v>3.7</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L162" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="M162" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="N162" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="M162" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="N162" s="5" t="s">
-        <v>612</v>
-      </c>
       <c r="O162" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="P162" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="P162" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="Q162" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R162" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S162" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="163" spans="1:20" s="6" customFormat="1" ht="126" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>156</v>
@@ -13452,52 +13583,52 @@
         <v>5</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I163" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L163" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="J163" s="5" t="s">
-        <v>870</v>
-      </c>
-      <c r="K163" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="L163" s="5" t="s">
+      <c r="M163" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="M163" s="7" t="s">
+      <c r="N163" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="O163" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="N163" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="O163" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="P163" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q163" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R163" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S163" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:20" ht="151.19999999999999" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>156</v>
@@ -13506,85 +13637,85 @@
         <v>3.7</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I164" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K164" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L164" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="M164" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="M164" s="7" t="s">
-        <v>532</v>
-      </c>
       <c r="N164" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O164" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P164" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q164" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R164" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S164" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B165" s="7"/>
       <c r="C165" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F165" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I165" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J165" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K165" s="7" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L165" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="S165" s="8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="166" spans="1:20" s="6" customFormat="1" ht="113.4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>156</v>
@@ -13593,52 +13724,52 @@
         <v>3.7</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I166" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="K166" s="6" t="s">
+        <v>912</v>
+      </c>
+      <c r="L166" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="J166" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="K166" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="L166" s="6" t="s">
+      <c r="M166" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="M166" s="6" t="s">
+      <c r="N166" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="N166" s="6" t="s">
+      <c r="O166" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="O166" s="6" t="s">
+      <c r="P166" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="P166" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="Q166" s="6" t="s">
         <v>161</v>
       </c>
       <c r="R166" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S166" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="167" spans="1:20" s="13" customFormat="1" ht="100.8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>155</v>
@@ -13648,105 +13779,105 @@
         <v>3.7</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J167" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="K167" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="K167" s="7" t="s">
-        <v>936</v>
-      </c>
       <c r="L167" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M167" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O167" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="P167" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q167" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R167" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S167" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="T167" s="6"/>
     </row>
     <row r="168" spans="1:20" s="13" customFormat="1" ht="37.799999999999997" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D168" s="6" t="s">
         <v>155</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J168" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="K168" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="K168" s="7" t="s">
-        <v>936</v>
-      </c>
       <c r="L168" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M168" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O168" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P168" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q168" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R168" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S168" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="T168" s="6"/>
     </row>
     <row r="169" spans="1:20" s="6" customFormat="1" ht="75.599999999999994" hidden="1" x14ac:dyDescent="0.2">
       <c r="C169" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D169" s="6" t="s">
         <v>156</v>
@@ -13755,110 +13886,229 @@
         <v>5</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I169" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="J169" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="J169" s="6" t="s">
+      <c r="K169" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="L169" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="M169" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="K169" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="L169" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="M169" s="6" t="s">
+      <c r="N169" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="N169" s="6" t="s">
+      <c r="O169" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="O169" s="6" t="s">
+      <c r="P169" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="P169" s="6" t="s">
+      <c r="Q169" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="Q169" s="6" t="s">
-        <v>875</v>
-      </c>
       <c r="R169" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="S169" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H170" s="8" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="171" spans="1:20" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="H171" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I171" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J171" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="J171" s="8" t="s">
+      <c r="K171" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="K171" s="8" t="s">
+      <c r="L171" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="L171" s="8" t="s">
+      <c r="M171" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="M171" s="8" t="s">
+      <c r="N171" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O171" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="N171" s="8" t="s">
+      <c r="P171" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="O171" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="P171" s="8" t="s">
-        <v>1035</v>
-      </c>
       <c r="Q171" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H172" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="173" spans="1:20" ht="25.2" x14ac:dyDescent="0.2">
       <c r="H173" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
-      <c r="N174" s="7"/>
-      <c r="R174" s="7"/>
-      <c r="S174" s="7"/>
+        <v>958</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" s="16" customFormat="1" ht="315" x14ac:dyDescent="0.2">
+      <c r="A174" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B174" s="15"/>
+      <c r="C174" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="F174" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="G174" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="H174" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I174" s="16" t="s">
+        <v>982</v>
+      </c>
+      <c r="J174" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="K174" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="N174" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S174" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" s="16" customFormat="1" ht="315" x14ac:dyDescent="0.2">
+      <c r="A175" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B175" s="15"/>
+      <c r="C175" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="F175" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="G175" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="H175" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I175" s="16" t="s">
+        <v>982</v>
+      </c>
+      <c r="J175" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="K175" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="N175" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S175" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" s="16" customFormat="1" ht="315" x14ac:dyDescent="0.2">
+      <c r="A176" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B176" s="15"/>
+      <c r="C176" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="F176" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="G176" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="H176" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I176" s="16" t="s">
+        <v>982</v>
+      </c>
+      <c r="J176" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="K176" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="N176" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S176" s="16" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" s="16" customFormat="1" ht="315" x14ac:dyDescent="0.2">
+      <c r="A177" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B177" s="15"/>
+      <c r="C177" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="G177" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="H177" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I177" s="16" t="s">
+        <v>982</v>
+      </c>
+      <c r="J177" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="K177" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="N177" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S177" s="16" t="s">
+        <v>830</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T173">
